--- a/REGULAR/ONT/LUNA, GUILLERMA.xlsx
+++ b/REGULAR/ONT/LUNA, GUILLERMA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>9/21-25/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -682,15 +688,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -703,11 +700,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3349,10 +3355,10 @@
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A72" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4155" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,14 +3388,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3400,14 +3406,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3420,14 +3426,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3453,18 +3459,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3511,7 +3517,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>49.363</v>
+        <v>51.863</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3521,7 +3527,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>79</v>
+        <v>81.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4958,7 +4964,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>58</v>
@@ -4984,7 +4990,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>57</v>
@@ -5008,7 +5014,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5028,7 +5034,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -5048,7 +5054,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5068,7 +5074,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5088,7 +5094,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5108,20 +5114,22 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39">
         <v>5</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5132,16 +5140,18 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5150,9 +5160,11 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>45260</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -5164,11 +5176,13 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5186,7 +5200,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5204,7 +5218,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5222,7 +5236,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5240,7 +5254,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5258,7 +5272,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5276,7 +5290,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5294,7 +5308,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5312,7 +5326,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5330,7 +5344,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5348,7 +5362,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5366,7 +5380,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5384,7 +5398,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5402,7 +5416,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5420,7 +5434,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5438,7 +5452,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5456,7 +5470,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45748</v>
+        <v>45777</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5474,7 +5488,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45778</v>
+        <v>45808</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5492,7 +5506,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45809</v>
+        <v>45838</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5510,7 +5524,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45839</v>
+        <v>45869</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5528,7 +5542,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45870</v>
+        <v>45900</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5546,7 +5560,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45901</v>
+        <v>45930</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5564,7 +5578,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45931</v>
+        <v>45961</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5582,7 +5596,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5600,7 +5614,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45992</v>
+        <v>46022</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5618,7 +5632,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46023</v>
+        <v>46053</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5636,7 +5650,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46054</v>
+        <v>46081</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5654,7 +5668,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46082</v>
+        <v>46112</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5672,7 +5686,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46113</v>
+        <v>46142</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5690,7 +5704,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46143</v>
+        <v>46173</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5708,7 +5722,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46174</v>
+        <v>46203</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5726,7 +5740,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46204</v>
+        <v>46234</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -6000,17 +6014,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6045,9 +6059,9 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <pane ySplit="4380" topLeftCell="A16" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -6079,14 +6093,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6100,17 +6114,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6124,17 +6138,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6160,18 +6174,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6218,7 +6232,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.411999999999999</v>
+        <v>1.411999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6590,10 +6604,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>3</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -6603,7 +6623,9 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
